--- a/Figure5_boxplot/Figure5b.xlsx
+++ b/Figure5_boxplot/Figure5b.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SUSTech Projects\Capacity estimation(SS)\郭南麟 复旦大学\Final_Revise\Figure data\Figure5_boxplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC2A28-8BFE-4BE0-91D4-3035C37FC1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B0540-783F-44F2-A9EC-58CA8A9415EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1530" windowWidth="19010" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure5b" sheetId="8" r:id="rId1"/>
+    <sheet name="0" sheetId="3" r:id="rId1"/>
+    <sheet name="5" sheetId="4" r:id="rId2"/>
+    <sheet name="10" sheetId="5" r:id="rId3"/>
+    <sheet name="15" sheetId="6" r:id="rId4"/>
+    <sheet name="20" sheetId="7" r:id="rId5"/>
+    <sheet name="25" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
   <si>
     <t>dataset1</t>
   </si>
@@ -47,6 +52,7 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -376,11 +382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -401,6 +407,7131 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>5.1400117074345802E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.1943589195133511</v>
+      </c>
+      <c r="D2">
+        <v>8.9181910424293895E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1438295106187821</v>
+      </c>
+      <c r="C3">
+        <v>0.20782061014702849</v>
+      </c>
+      <c r="D3">
+        <v>9.4539984157419807E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.11827720573579879</v>
+      </c>
+      <c r="C4">
+        <v>0.1268471443252692</v>
+      </c>
+      <c r="D4">
+        <v>9.0611899423570702E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1078083405016957</v>
+      </c>
+      <c r="C5">
+        <v>0.1218989557769503</v>
+      </c>
+      <c r="D5">
+        <v>0.113497047415765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.112470331673797</v>
+      </c>
+      <c r="C6">
+        <v>0.16155682817815439</v>
+      </c>
+      <c r="D6">
+        <v>0.11278974798455919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.10275184455342209</v>
+      </c>
+      <c r="C7">
+        <v>0.1722678712796426</v>
+      </c>
+      <c r="D7">
+        <v>0.1099971584827166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1047881469611941</v>
+      </c>
+      <c r="C8">
+        <v>0.1178889500702494</v>
+      </c>
+      <c r="D8">
+        <v>0.1304543352117927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.11120742684697051</v>
+      </c>
+      <c r="C9">
+        <v>0.17593003949402569</v>
+      </c>
+      <c r="D9">
+        <v>6.6818201874715794E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1161535748692832</v>
+      </c>
+      <c r="C10">
+        <v>0.129128054709676</v>
+      </c>
+      <c r="D10">
+        <v>8.9256127326794693E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1150935214863396</v>
+      </c>
+      <c r="C11">
+        <v>0.2490682284912184</v>
+      </c>
+      <c r="D11">
+        <v>8.6018270818256706E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.1317054731342257</v>
+      </c>
+      <c r="C12">
+        <v>0.12700015258476219</v>
+      </c>
+      <c r="D12">
+        <v>0.1113504799821762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1206789327894229</v>
+      </c>
+      <c r="C13">
+        <v>0.16137737203389091</v>
+      </c>
+      <c r="D13">
+        <v>9.6590737565500004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9.6073245509755698E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.1516081989390009</v>
+      </c>
+      <c r="D14">
+        <v>0.14280820537659819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9.9990838646698804E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.15522138248385131</v>
+      </c>
+      <c r="D15">
+        <v>6.4063416823419594E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.1125712357506949</v>
+      </c>
+      <c r="C16">
+        <v>0.1329853075454096</v>
+      </c>
+      <c r="D16">
+        <v>0.1122354087544144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.1559735967030641</v>
+      </c>
+      <c r="C17">
+        <v>0.18307494157691589</v>
+      </c>
+      <c r="D17">
+        <v>9.7049669014841702E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.14678133482255831</v>
+      </c>
+      <c r="C18">
+        <v>0.1622954552081699</v>
+      </c>
+      <c r="D18">
+        <v>0.1072228202289361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1871366588464432</v>
+      </c>
+      <c r="C19">
+        <v>0.15260559294582951</v>
+      </c>
+      <c r="D19">
+        <v>7.9481497917592306E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7.7553052159413605E-2</v>
+      </c>
+      <c r="C20">
+        <v>8.4368025868756705E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.15956872250044549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.183084651901471</v>
+      </c>
+      <c r="C21">
+        <v>0.24091340083554039</v>
+      </c>
+      <c r="D21">
+        <v>0.1233889696268371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.11637083722881419</v>
+      </c>
+      <c r="C22">
+        <v>8.6596205369323498E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.2433785675076693E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.1202911858006272</v>
+      </c>
+      <c r="C23">
+        <v>0.2293430108891491</v>
+      </c>
+      <c r="D23">
+        <v>8.1296137706214203E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.0407509776696899E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.2951735253886197E-2</v>
+      </c>
+      <c r="D24">
+        <v>7.6734309083730703E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.13587655309270019</v>
+      </c>
+      <c r="C25">
+        <v>0.1196548597052297</v>
+      </c>
+      <c r="D25">
+        <v>8.4761586099444702E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.14472176823637109</v>
+      </c>
+      <c r="C26">
+        <v>0.1793244641873826</v>
+      </c>
+      <c r="D26">
+        <v>8.7259943731716999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.1195759162647297</v>
+      </c>
+      <c r="C27">
+        <v>0.14536970185778009</v>
+      </c>
+      <c r="D27">
+        <v>0.13107995402756581</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.1161984603345415</v>
+      </c>
+      <c r="C28">
+        <v>0.1134124488897265</v>
+      </c>
+      <c r="D28">
+        <v>0.14312756287040179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.1627909717626351</v>
+      </c>
+      <c r="C29">
+        <v>0.13253919826699909</v>
+      </c>
+      <c r="D29">
+        <v>7.3708289755671605E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1524657876444403</v>
+      </c>
+      <c r="C30">
+        <v>0.127897931614598</v>
+      </c>
+      <c r="D30">
+        <v>0.1032999630805037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.1205686344271755</v>
+      </c>
+      <c r="C31">
+        <v>0.16052882389208981</v>
+      </c>
+      <c r="D31">
+        <v>8.4334524487085893E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.1135783124125866</v>
+      </c>
+      <c r="C32">
+        <v>0.1988224967226675</v>
+      </c>
+      <c r="D32">
+        <v>7.7453207668683702E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>6.6540372650389895E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.1071862505639901</v>
+      </c>
+      <c r="D33">
+        <v>0.10383951773787049</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.16005272408343099</v>
+      </c>
+      <c r="C34">
+        <v>0.19551972570266521</v>
+      </c>
+      <c r="D34">
+        <v>0.12067969765937971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>7.8691623573569805E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.14185680240201351</v>
+      </c>
+      <c r="D35">
+        <v>6.8582998984361696E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.1019816887926209</v>
+      </c>
+      <c r="C36">
+        <v>0.15386245344121391</v>
+      </c>
+      <c r="D36">
+        <v>0.1031664981252379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.11811598500262099</v>
+      </c>
+      <c r="C37">
+        <v>8.5206659322837303E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.14049790041423341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.13451975962063581</v>
+      </c>
+      <c r="C38">
+        <v>0.13572491561443151</v>
+      </c>
+      <c r="D38">
+        <v>8.5347909909952696E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.13182835974488011</v>
+      </c>
+      <c r="C39">
+        <v>0.1457437632503687</v>
+      </c>
+      <c r="D39">
+        <v>0.13420853288746609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.1174793386681463</v>
+      </c>
+      <c r="C40">
+        <v>0.1338879750330603</v>
+      </c>
+      <c r="D40">
+        <v>0.1251345757744286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.13373723217091729</v>
+      </c>
+      <c r="C41">
+        <v>0.1024578833831012</v>
+      </c>
+      <c r="D41">
+        <v>9.7418084952739903E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.12535813615708441</v>
+      </c>
+      <c r="C42">
+        <v>0.1661719796837404</v>
+      </c>
+      <c r="D42">
+        <v>0.1354393869700469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.13510913905848851</v>
+      </c>
+      <c r="C43">
+        <v>7.8195216426253197E-2</v>
+      </c>
+      <c r="D43">
+        <v>7.4323568658123507E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.103090961192861</v>
+      </c>
+      <c r="C44">
+        <v>0.1441057378294994</v>
+      </c>
+      <c r="D44">
+        <v>0.1042442913470874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>8.16268227688597E-2</v>
+      </c>
+      <c r="C45">
+        <v>8.7326647040898805E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.4620403451254194E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.17885920145961409</v>
+      </c>
+      <c r="C46">
+        <v>0.1960275572875548</v>
+      </c>
+      <c r="D46">
+        <v>0.12470729618400821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.1211586450196572</v>
+      </c>
+      <c r="C47">
+        <v>0.1916130321038749</v>
+      </c>
+      <c r="D47">
+        <v>9.1318160071355695E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.14780777676152959</v>
+      </c>
+      <c r="C48">
+        <v>0.1241121830482597</v>
+      </c>
+      <c r="D48">
+        <v>0.1140156407112393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.10388744616208589</v>
+      </c>
+      <c r="C49">
+        <v>0.13425992141406209</v>
+      </c>
+      <c r="D49">
+        <v>0.1173409085808778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>8.68651992479475E-2</v>
+      </c>
+      <c r="C50">
+        <v>8.8963927836868698E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.9369844583632697E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.1480932471728886</v>
+      </c>
+      <c r="C51">
+        <v>0.13644011271259279</v>
+      </c>
+      <c r="D51">
+        <v>0.1032251662637667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1221042666944145</v>
+      </c>
+      <c r="C52">
+        <v>0.1368510949373947</v>
+      </c>
+      <c r="D52">
+        <v>0.12696835650217059</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.1288942755964492</v>
+      </c>
+      <c r="C53">
+        <v>0.1633369991663805</v>
+      </c>
+      <c r="D53">
+        <v>0.13779779931237721</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.12282341979382499</v>
+      </c>
+      <c r="C54">
+        <v>0.1396381301519537</v>
+      </c>
+      <c r="D54">
+        <v>6.4955639293779996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.1031610839571067</v>
+      </c>
+      <c r="C55">
+        <v>9.7011173221127206E-2</v>
+      </c>
+      <c r="D55">
+        <v>7.5777442541133305E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.1332824287963055</v>
+      </c>
+      <c r="C56">
+        <v>0.1310450909864852</v>
+      </c>
+      <c r="D56">
+        <v>0.13478662234676489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.13476356692220659</v>
+      </c>
+      <c r="C57">
+        <v>0.11287714557534879</v>
+      </c>
+      <c r="D57">
+        <v>6.2476901212957299E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.22248578632701599</v>
+      </c>
+      <c r="C58">
+        <v>0.14328557324626859</v>
+      </c>
+      <c r="D58">
+        <v>9.5361934913401794E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.106861403715262</v>
+      </c>
+      <c r="C59">
+        <v>9.6091739927969794E-2</v>
+      </c>
+      <c r="D59">
+        <v>9.7799341917724505E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.16254116254456299</v>
+      </c>
+      <c r="C60">
+        <v>0.158298744393677</v>
+      </c>
+      <c r="D60">
+        <v>9.3511847356916006E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.1249511483725947</v>
+      </c>
+      <c r="C61">
+        <v>0.1818265079202428</v>
+      </c>
+      <c r="D61">
+        <v>0.1014781334595606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.1222987218680527</v>
+      </c>
+      <c r="C62">
+        <v>0.20403196281124769</v>
+      </c>
+      <c r="D62">
+        <v>0.1194379069619214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.1348066948126331</v>
+      </c>
+      <c r="C63">
+        <v>0.1866040583775346</v>
+      </c>
+      <c r="D63">
+        <v>8.8398601074590299E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.17449185967146641</v>
+      </c>
+      <c r="C64">
+        <v>0.10332857187226969</v>
+      </c>
+      <c r="D64">
+        <v>0.10333631753126329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1045417066281067</v>
+      </c>
+      <c r="C65">
+        <v>0.24094911214080181</v>
+      </c>
+      <c r="D65">
+        <v>0.135317946858592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.1836555971446665</v>
+      </c>
+      <c r="C66">
+        <v>0.1162021939540618</v>
+      </c>
+      <c r="D66">
+        <v>0.1090691568756175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.1588276718814029</v>
+      </c>
+      <c r="C67">
+        <v>0.14484535092941209</v>
+      </c>
+      <c r="D67">
+        <v>0.13774877118900061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.16866459674707809</v>
+      </c>
+      <c r="C68">
+        <v>0.152512375866974</v>
+      </c>
+      <c r="D68">
+        <v>0.14050577314649729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>9.9455161095490505E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.13615845843089139</v>
+      </c>
+      <c r="D69">
+        <v>7.0150821171913805E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>9.3537162847064106E-2</v>
+      </c>
+      <c r="C70">
+        <v>0.14365923205685829</v>
+      </c>
+      <c r="D70">
+        <v>9.5715226895889197E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.14876977646532311</v>
+      </c>
+      <c r="C71">
+        <v>0.12093879228007109</v>
+      </c>
+      <c r="D71">
+        <v>0.13924316067219861</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>5.69750111473903E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.1366752200130793</v>
+      </c>
+      <c r="D72">
+        <v>0.1392772877779945</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.11178083223895049</v>
+      </c>
+      <c r="C73">
+        <v>0.1657284074098517</v>
+      </c>
+      <c r="D73">
+        <v>0.11328413874077151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>9.5175449648674207E-2</v>
+      </c>
+      <c r="C74">
+        <v>0.1636592705155524</v>
+      </c>
+      <c r="D74">
+        <v>9.0080999857732894E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.17788965495922671</v>
+      </c>
+      <c r="C75">
+        <v>0.11233194983690779</v>
+      </c>
+      <c r="D75">
+        <v>0.1045235623668451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.14644898469100931</v>
+      </c>
+      <c r="C76">
+        <v>0.14448894608143381</v>
+      </c>
+      <c r="D76">
+        <v>0.1102887946629018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.19487640524092351</v>
+      </c>
+      <c r="C77">
+        <v>0.15108617666967089</v>
+      </c>
+      <c r="D77">
+        <v>0.12637097717954851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.14520535093220921</v>
+      </c>
+      <c r="C78">
+        <v>0.1384602258015579</v>
+      </c>
+      <c r="D78">
+        <v>0.1118350501531503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.14196000689309671</v>
+      </c>
+      <c r="C79">
+        <v>0.13516337369376749</v>
+      </c>
+      <c r="D79">
+        <v>0.12166668335561991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.1171933207381132</v>
+      </c>
+      <c r="C80">
+        <v>0.13611018993763019</v>
+      </c>
+      <c r="D80">
+        <v>9.4822654594178102E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.10882534356994771</v>
+      </c>
+      <c r="C81">
+        <v>0.10423946457387639</v>
+      </c>
+      <c r="D81">
+        <v>0.12612004486163839</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.11404278332918839</v>
+      </c>
+      <c r="C82">
+        <v>0.1196823850433473</v>
+      </c>
+      <c r="D82">
+        <v>0.1002995206806012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.15360058089950579</v>
+      </c>
+      <c r="C83">
+        <v>0.13557618780566591</v>
+      </c>
+      <c r="D83">
+        <v>0.10197520345583901</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.12878367353481379</v>
+      </c>
+      <c r="C84">
+        <v>0.14008164550579549</v>
+      </c>
+      <c r="D84">
+        <v>8.2430115684174701E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.1240179265592801</v>
+      </c>
+      <c r="C85">
+        <v>0.1504953403174108</v>
+      </c>
+      <c r="D85">
+        <v>8.3140933809349796E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.14305448125908751</v>
+      </c>
+      <c r="C86">
+        <v>8.9429030377440599E-2</v>
+      </c>
+      <c r="D86">
+        <v>0.1199147279835861</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.1291683598799537</v>
+      </c>
+      <c r="C87">
+        <v>0.20790622344367041</v>
+      </c>
+      <c r="D87">
+        <v>0.1189062619115442</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.14060783193016729</v>
+      </c>
+      <c r="C88">
+        <v>0.1311989555794893</v>
+      </c>
+      <c r="D88">
+        <v>0.145764080535708</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.113531697873368</v>
+      </c>
+      <c r="C89">
+        <v>0.1179284011649625</v>
+      </c>
+      <c r="D89">
+        <v>0.1066109848721334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.107918162254851</v>
+      </c>
+      <c r="C90">
+        <v>0.15051248229606809</v>
+      </c>
+      <c r="D90">
+        <v>0.1360379932492293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>9.5994122799900605E-2</v>
+      </c>
+      <c r="C91">
+        <v>9.4174596161608407E-2</v>
+      </c>
+      <c r="D91">
+        <v>0.10672721630015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0.14619829351782701</v>
+      </c>
+      <c r="C92">
+        <v>0.1068567995869581</v>
+      </c>
+      <c r="D92">
+        <v>9.9872007993279499E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0.10616088355031859</v>
+      </c>
+      <c r="C93">
+        <v>0.13266920725416301</v>
+      </c>
+      <c r="D93">
+        <v>0.135214464457308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0.1601147928582746</v>
+      </c>
+      <c r="C94">
+        <v>0.1705331533385562</v>
+      </c>
+      <c r="D94">
+        <v>0.10192423862082869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0.21338783591525309</v>
+      </c>
+      <c r="C95">
+        <v>0.19877897619366841</v>
+      </c>
+      <c r="D95">
+        <v>0.10180205631304159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.1235930502774237</v>
+      </c>
+      <c r="C96">
+        <v>0.15686738457189731</v>
+      </c>
+      <c r="D96">
+        <v>0.10965384545987029</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0.1239296807621751</v>
+      </c>
+      <c r="C97">
+        <v>0.1670747835561868</v>
+      </c>
+      <c r="D97">
+        <v>6.2988239166362703E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.16603241293261201</v>
+      </c>
+      <c r="C98">
+        <v>0.1679058211935586</v>
+      </c>
+      <c r="D98">
+        <v>0.1339415204816698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.12779533730185061</v>
+      </c>
+      <c r="C99">
+        <v>0.1338899865207821</v>
+      </c>
+      <c r="D99">
+        <v>0.11118950875280249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0.1101008966250545</v>
+      </c>
+      <c r="C100">
+        <v>0.214962239419384</v>
+      </c>
+      <c r="D100">
+        <v>9.6758067447309096E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.1203203228840236</v>
+      </c>
+      <c r="C101">
+        <v>0.13840049921775191</v>
+      </c>
+      <c r="D101">
+        <v>9.6429210468329599E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.13407826235296799</v>
+      </c>
+      <c r="C2">
+        <v>0.14253620906148831</v>
+      </c>
+      <c r="D2">
+        <v>9.96449405010532E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8.6984691408167406E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.1509622846350045</v>
+      </c>
+      <c r="D3">
+        <v>0.11069193271083071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.12892242122762751</v>
+      </c>
+      <c r="C4">
+        <v>0.1182142537722789</v>
+      </c>
+      <c r="D4">
+        <v>0.12979565331750639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1522233890945611</v>
+      </c>
+      <c r="C5">
+        <v>0.121647168220372</v>
+      </c>
+      <c r="D5">
+        <v>9.0527646849123095E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.4837184703770501E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.13846781597441429</v>
+      </c>
+      <c r="D6">
+        <v>8.8918276399552201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>9.5020094749131798E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.215275398578822</v>
+      </c>
+      <c r="D7">
+        <v>7.1689000420666393E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.13057086384074801</v>
+      </c>
+      <c r="C8">
+        <v>6.3861557085867202E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.9218442248108997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9.8440605975312206E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.1265921919766313</v>
+      </c>
+      <c r="D9">
+        <v>0.1033391779488983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8.6386700023933394E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.1214900935708686</v>
+      </c>
+      <c r="D10">
+        <v>6.8249939604451901E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1181439807310007</v>
+      </c>
+      <c r="C11">
+        <v>0.1632117712767141</v>
+      </c>
+      <c r="D11">
+        <v>6.13565233898999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.10871819547765491</v>
+      </c>
+      <c r="C12">
+        <v>0.1219701780402432</v>
+      </c>
+      <c r="D12">
+        <v>6.7922698465278805E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1052452875005845</v>
+      </c>
+      <c r="C13">
+        <v>0.1638991412309814</v>
+      </c>
+      <c r="D13">
+        <v>9.9324799467509994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>7.8074253412147798E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.127332174249465</v>
+      </c>
+      <c r="D14">
+        <v>0.1011102723758394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.1100066443574003</v>
+      </c>
+      <c r="C15">
+        <v>0.1076119792635248</v>
+      </c>
+      <c r="D15">
+        <v>0.18629276018490909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.7536061356073003E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.1128738208379938</v>
+      </c>
+      <c r="D16">
+        <v>0.1008788184057143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9.1747892937297695E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.27083956833567657</v>
+      </c>
+      <c r="D17">
+        <v>9.4739443906936893E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1092851777519019</v>
+      </c>
+      <c r="C18">
+        <v>0.12103340405023939</v>
+      </c>
+      <c r="D18">
+        <v>7.1955230048584506E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1094363909169721</v>
+      </c>
+      <c r="C19">
+        <v>0.112116916722271</v>
+      </c>
+      <c r="D19">
+        <v>9.4097300532580697E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1146021834480864</v>
+      </c>
+      <c r="C20">
+        <v>8.1549516605149794E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.3196182950908299E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1626744386948164</v>
+      </c>
+      <c r="C21">
+        <v>0.24091340083554039</v>
+      </c>
+      <c r="D21">
+        <v>9.4560619336052504E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>9.4751462689025706E-2</v>
+      </c>
+      <c r="C22">
+        <v>8.1921016745893402E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.10586375754551069</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.10559655010145499</v>
+      </c>
+      <c r="C23">
+        <v>0.1838320554800594</v>
+      </c>
+      <c r="D23">
+        <v>0.12168532235248029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.1091171883498212</v>
+      </c>
+      <c r="C24">
+        <v>7.8573633222805903E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.15978562612284339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.66910780766473E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.1139517178850657</v>
+      </c>
+      <c r="D25">
+        <v>7.0080408758429399E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.20233891931426121</v>
+      </c>
+      <c r="C26">
+        <v>0.22952880143254051</v>
+      </c>
+      <c r="D26">
+        <v>9.4881194521178797E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>9.3864121832419697E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.3507834194178539</v>
+      </c>
+      <c r="D27">
+        <v>9.2737312445324696E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>8.8468278657936605E-2</v>
+      </c>
+      <c r="C28">
+        <v>9.1821275342635594E-2</v>
+      </c>
+      <c r="D28">
+        <v>7.9178341751200407E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9.4308138172745901E-2</v>
+      </c>
+      <c r="C29">
+        <v>9.8319142271697094E-2</v>
+      </c>
+      <c r="D29">
+        <v>9.1709875787376702E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1665346556601689</v>
+      </c>
+      <c r="C30">
+        <v>0.13354352675083669</v>
+      </c>
+      <c r="D30">
+        <v>0.16777006558143381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.1067615940062117</v>
+      </c>
+      <c r="C31">
+        <v>0.1239708518083978</v>
+      </c>
+      <c r="D31">
+        <v>6.2615845613061397E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9.9722249971259794E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.1336350802665687</v>
+      </c>
+      <c r="D32">
+        <v>7.9410633099168695E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9.9050374854154494E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.66021889572839676</v>
+      </c>
+      <c r="D33">
+        <v>8.4917357939134394E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.1070190746308525</v>
+      </c>
+      <c r="C34">
+        <v>0.17351628440372061</v>
+      </c>
+      <c r="D34">
+        <v>4.2054421117930903E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.11394166395600019</v>
+      </c>
+      <c r="C35">
+        <v>0.1281427923870104</v>
+      </c>
+      <c r="D35">
+        <v>8.0561729232659599E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.20357389758124339</v>
+      </c>
+      <c r="C36">
+        <v>0.15458315873903811</v>
+      </c>
+      <c r="D36">
+        <v>7.1507804105311004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.72021767907969891</v>
+      </c>
+      <c r="C37">
+        <v>6.8913928159645199E-2</v>
+      </c>
+      <c r="D37">
+        <v>0.1063398920124702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>7.1436409217738597E-2</v>
+      </c>
+      <c r="C38">
+        <v>7.7598720229567195E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.1395401393298599E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.12765522859461201</v>
+      </c>
+      <c r="C39">
+        <v>0.14376886182840279</v>
+      </c>
+      <c r="D39">
+        <v>6.7786607344803407E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.147158825176709</v>
+      </c>
+      <c r="C40">
+        <v>11.0126021687513</v>
+      </c>
+      <c r="D40">
+        <v>6.4336936489456806E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.1240185117786707</v>
+      </c>
+      <c r="C41">
+        <v>8.6760437554902106E-2</v>
+      </c>
+      <c r="D41">
+        <v>8.7034300906248099E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.10521269125302229</v>
+      </c>
+      <c r="C42">
+        <v>0.1533703389753141</v>
+      </c>
+      <c r="D42">
+        <v>0.10113867022826099</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.1139471308328661</v>
+      </c>
+      <c r="C43">
+        <v>7.1575610654875901E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.23262979674959819</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.14052168972995299</v>
+      </c>
+      <c r="C44">
+        <v>0.1246191184076172</v>
+      </c>
+      <c r="D44">
+        <v>8.1643969530657903E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.19518932486598961</v>
+      </c>
+      <c r="C45">
+        <v>0.1247592765529858</v>
+      </c>
+      <c r="D45">
+        <v>0.14903846185772041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.13271065626778511</v>
+      </c>
+      <c r="C46">
+        <v>0.1990197975621274</v>
+      </c>
+      <c r="D46">
+        <v>0.14772261888823399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>8.6937448816520005E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.1565891794682876</v>
+      </c>
+      <c r="D47">
+        <v>9.2381934221534401E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.10021911902477609</v>
+      </c>
+      <c r="C48">
+        <v>0.1103615497896866</v>
+      </c>
+      <c r="D48">
+        <v>0.13095749265045431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>7.8435135935832803E-2</v>
+      </c>
+      <c r="C49">
+        <v>0.11921964520875231</v>
+      </c>
+      <c r="D49">
+        <v>0.1181422350275311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>9.1045946426769803E-2</v>
+      </c>
+      <c r="C50">
+        <v>7.2334300512150604E-2</v>
+      </c>
+      <c r="D50">
+        <v>8.47236762998472E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.2018057210611631</v>
+      </c>
+      <c r="C51">
+        <v>0.80859864533672754</v>
+      </c>
+      <c r="D51">
+        <v>0.12425083713171201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1132588405875134</v>
+      </c>
+      <c r="C52">
+        <v>0.123146278420909</v>
+      </c>
+      <c r="D52">
+        <v>0.13644167903221979</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.1115661269103979</v>
+      </c>
+      <c r="C53">
+        <v>14.50796581964088</v>
+      </c>
+      <c r="D53">
+        <v>6.3396995965805295E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.1503293155828927</v>
+      </c>
+      <c r="C54">
+        <v>0.1170002338290614</v>
+      </c>
+      <c r="D54">
+        <v>0.10597711942818459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9.7397200434960404E-2</v>
+      </c>
+      <c r="C55">
+        <v>8.5651805189987704E-2</v>
+      </c>
+      <c r="D55">
+        <v>6.4096274332892306E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9.9475182176690796E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.1105425173585374</v>
+      </c>
+      <c r="D56">
+        <v>0.1124822499674947</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.13326537970529559</v>
+      </c>
+      <c r="C57">
+        <v>0.1001768571897772</v>
+      </c>
+      <c r="D57">
+        <v>8.4573642228325502E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.107495317417529</v>
+      </c>
+      <c r="C58">
+        <v>0.12864314715145339</v>
+      </c>
+      <c r="D58">
+        <v>0.1040168895174244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.2230192540418654</v>
+      </c>
+      <c r="C59">
+        <v>8.8805241997727102E-2</v>
+      </c>
+      <c r="D59">
+        <v>0.15053946222063491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.1191300498408704</v>
+      </c>
+      <c r="C60">
+        <v>0.2051015259604361</v>
+      </c>
+      <c r="D60">
+        <v>0.14440915392143369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>9.6994244025566001E-2</v>
+      </c>
+      <c r="C61">
+        <v>0.17831518392542231</v>
+      </c>
+      <c r="D61">
+        <v>0.1453922903769484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>9.6762449030624295E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.21043352848330071</v>
+      </c>
+      <c r="D62">
+        <v>7.6675234519169397E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>8.6657155788322698E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.14281209979755041</v>
+      </c>
+      <c r="D63">
+        <v>8.5236915464438096E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>5.2854259294058702E-2</v>
+      </c>
+      <c r="C64">
+        <v>6.2894611411130397E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.10973111328214639</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.11452334289583579</v>
+      </c>
+      <c r="C65">
+        <v>0.2389086541688224</v>
+      </c>
+      <c r="D65">
+        <v>0.1239759499381608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.10816380160247641</v>
+      </c>
+      <c r="C66">
+        <v>8.0018904277416106E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.1409312535384884</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.40476762209453021</v>
+      </c>
+      <c r="C67">
+        <v>0.15070363249718241</v>
+      </c>
+      <c r="D67">
+        <v>0.1198833376683693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.1284556516522464</v>
+      </c>
+      <c r="C68">
+        <v>0.1293883697901147</v>
+      </c>
+      <c r="D68">
+        <v>6.8930923709224795E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>9.2634905677996704E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.1342011323007187</v>
+      </c>
+      <c r="D69">
+        <v>8.6424648833024795E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.1487594235668987</v>
+      </c>
+      <c r="C70">
+        <v>0.15440539794745881</v>
+      </c>
+      <c r="D70">
+        <v>0.12646773282827989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.14505345764106931</v>
+      </c>
+      <c r="C71">
+        <v>0.11397970827060511</v>
+      </c>
+      <c r="D71">
+        <v>8.5431682929069802E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.1120225362136268</v>
+      </c>
+      <c r="C72">
+        <v>0.1040324665868492</v>
+      </c>
+      <c r="D72">
+        <v>0.1183186651325614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>9.1205949780170895E-2</v>
+      </c>
+      <c r="C73">
+        <v>0.69863921560445275</v>
+      </c>
+      <c r="D73">
+        <v>0.13414204575491689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.14414993410132609</v>
+      </c>
+      <c r="C74">
+        <v>0.2056234291295406</v>
+      </c>
+      <c r="D74">
+        <v>9.3940441811846798E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>6.8580162353860399E-2</v>
+      </c>
+      <c r="C75">
+        <v>0.11992834750963779</v>
+      </c>
+      <c r="D75">
+        <v>9.6858041989276403E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.1090214593791778</v>
+      </c>
+      <c r="C76">
+        <v>0.14489568455279861</v>
+      </c>
+      <c r="D76">
+        <v>0.52188058120226111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.6604512530460378</v>
+      </c>
+      <c r="C77">
+        <v>0.14793890261028991</v>
+      </c>
+      <c r="D77">
+        <v>7.8493622308890301E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.10535310179437141</v>
+      </c>
+      <c r="C78">
+        <v>9.4756878982435302E-2</v>
+      </c>
+      <c r="D78">
+        <v>7.6081945455497901E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.9431802443080002E-2</v>
+      </c>
+      <c r="C79">
+        <v>0.12866854699693769</v>
+      </c>
+      <c r="D79">
+        <v>7.4531309581863797E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>9.0211309363314396E-2</v>
+      </c>
+      <c r="C80">
+        <v>0.1107943908144616</v>
+      </c>
+      <c r="D80">
+        <v>9.28363379279602E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.1071120576194719</v>
+      </c>
+      <c r="C81">
+        <v>7.7898446061936202E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.99509119980448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.12068463898029989</v>
+      </c>
+      <c r="C82">
+        <v>0.1079409602990105</v>
+      </c>
+      <c r="D82">
+        <v>5.5988685441467997E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.16970269538355401</v>
+      </c>
+      <c r="C83">
+        <v>0.65068201878265663</v>
+      </c>
+      <c r="D83">
+        <v>0.1417984674842501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.1112150117896977</v>
+      </c>
+      <c r="C84">
+        <v>9.0578781533333E-2</v>
+      </c>
+      <c r="D84">
+        <v>0.1213753786032349</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>6.6086144028683805E-2</v>
+      </c>
+      <c r="C85">
+        <v>0.1182474593370833</v>
+      </c>
+      <c r="D85">
+        <v>8.0678979197741002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.124020277028964</v>
+      </c>
+      <c r="C86">
+        <v>7.5488214224150293E-2</v>
+      </c>
+      <c r="D86">
+        <v>9.6153018946222898E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>9.3484586556494803E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.22360952521065461</v>
+      </c>
+      <c r="D87">
+        <v>7.9587729868562704E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>8.8864864475734398E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.1274481702744012</v>
+      </c>
+      <c r="D88">
+        <v>9.5097271533427605E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.108506534467499</v>
+      </c>
+      <c r="C89">
+        <v>0.1892046654307743</v>
+      </c>
+      <c r="D89">
+        <v>8.5489331205695102E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.10828630781809639</v>
+      </c>
+      <c r="C90">
+        <v>0.15580519433063719</v>
+      </c>
+      <c r="D90">
+        <v>0.1019383429539774</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.1072041461359628</v>
+      </c>
+      <c r="C91">
+        <v>0.12677934376061761</v>
+      </c>
+      <c r="D91">
+        <v>9.9082265653115703E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9.6241370506569404E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.1229567040652963</v>
+      </c>
+      <c r="D92">
+        <v>9.1571466758161704E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>7.3603622098251997E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.13578285099620049</v>
+      </c>
+      <c r="D93">
+        <v>0.1991809953710578</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>9.0641531361102506E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.1661838152520913</v>
+      </c>
+      <c r="D94">
+        <v>6.1337592417764097E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>7.8138544672750498E-2</v>
+      </c>
+      <c r="C95">
+        <v>0.26324018675759192</v>
+      </c>
+      <c r="D95">
+        <v>0.1210062096435648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.1059707711219473</v>
+      </c>
+      <c r="C96">
+        <v>0.16530446441610569</v>
+      </c>
+      <c r="D96">
+        <v>0.11156577104889551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>7.7274101319816102E-2</v>
+      </c>
+      <c r="C97">
+        <v>0.13473760621989389</v>
+      </c>
+      <c r="D97">
+        <v>8.4073653180665703E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1017817125774856</v>
+      </c>
+      <c r="C98">
+        <v>0.94938249625838844</v>
+      </c>
+      <c r="D98">
+        <v>8.6331123897559203E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.127123949500943</v>
+      </c>
+      <c r="C99">
+        <v>0.1295780791141925</v>
+      </c>
+      <c r="D99">
+        <v>0.111241653981943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>8.1784208840832998E-2</v>
+      </c>
+      <c r="C100">
+        <v>0.1224608616746137</v>
+      </c>
+      <c r="D100">
+        <v>3.910221490189393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.13693518487013409</v>
+      </c>
+      <c r="C101">
+        <v>0.12586988939226779</v>
+      </c>
+      <c r="D101">
+        <v>7.2632589962920602E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.9797585423528803E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10884094809893829</v>
+      </c>
+      <c r="D2">
+        <v>9.7956349262302206E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.3683085845015303E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.14429227886121199</v>
+      </c>
+      <c r="D3">
+        <v>0.115371959591128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1114647980843624</v>
+      </c>
+      <c r="C4">
+        <v>0.10424598663210551</v>
+      </c>
+      <c r="D4">
+        <v>0.14700521343687639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.16053445405068981</v>
+      </c>
+      <c r="C5">
+        <v>0.1193049662197206</v>
+      </c>
+      <c r="D5">
+        <v>8.5785945030863703E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7.2555485642850207E-2</v>
+      </c>
+      <c r="C6">
+        <v>7.1730072797982297E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.3532220685830998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.5286741720492906E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.22405001671306229</v>
+      </c>
+      <c r="D7">
+        <v>6.6757496384318299E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1471769965596825</v>
+      </c>
+      <c r="C8">
+        <v>6.56288377841239E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.74109531065092E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9.6743954238123403E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.130429378861005</v>
+      </c>
+      <c r="D9">
+        <v>9.7246355751462205E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8.1079625095643995E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.10263244990435071</v>
+      </c>
+      <c r="D10">
+        <v>6.6557007613022995E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8.8973813773614893E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.19316846542017979</v>
+      </c>
+      <c r="D11">
+        <v>6.1376975981282701E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7.6275533830551995E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.1006302512083137</v>
+      </c>
+      <c r="D12">
+        <v>0.25035052126173529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1078964071076689</v>
+      </c>
+      <c r="C13">
+        <v>0.16554112176804889</v>
+      </c>
+      <c r="D13">
+        <v>9.3174787989699803E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.4034105429849997E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.1223639315367813</v>
+      </c>
+      <c r="D14">
+        <v>9.3559004916283495E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>9.0121102577045906E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.1033286106928961</v>
+      </c>
+      <c r="D15">
+        <v>8.0233336002149394E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.2691757367487101E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.1050609011272873</v>
+      </c>
+      <c r="D16">
+        <v>9.7965038830912607E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8.4394404489957095E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.60084398776486947</v>
+      </c>
+      <c r="D17">
+        <v>9.0145808783266904E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1097722134739719</v>
+      </c>
+      <c r="C18">
+        <v>9.6884698335646294E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.7744219482578402E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9.1880152213955096E-2</v>
+      </c>
+      <c r="C19">
+        <v>14.700855415685391</v>
+      </c>
+      <c r="D19">
+        <v>9.3098639954159304E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1102992889774056</v>
+      </c>
+      <c r="C20">
+        <v>7.2398633418206904E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.1012553005983278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.13784508452221811</v>
+      </c>
+      <c r="C21">
+        <v>0.24091340083554039</v>
+      </c>
+      <c r="D21">
+        <v>9.6147863498886404E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6.3097978142334393E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.9286457704522001E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.1261804573377597E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9.5465283899316494E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.17223275326958801</v>
+      </c>
+      <c r="D23">
+        <v>0.1176557507244841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7.0841844296110804E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.6186203278099995E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.15860059131244911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.4879529457988902E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.10039735636554779</v>
+      </c>
+      <c r="D25">
+        <v>6.6659896431805199E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.1901959212355413</v>
+      </c>
+      <c r="C26">
+        <v>0.183261078512895</v>
+      </c>
+      <c r="D26">
+        <v>9.5808923889669301E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>9.0819597087612697E-2</v>
+      </c>
+      <c r="C27">
+        <v>9.3135302645235604E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.10542215320612811</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>8.6764295637289796E-2</v>
+      </c>
+      <c r="C28">
+        <v>8.9440446021768705E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.9135430562260194E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9.1658289869278403E-2</v>
+      </c>
+      <c r="C29">
+        <v>9.8271728336644104E-2</v>
+      </c>
+      <c r="D29">
+        <v>0.11964848131508279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1743073985565346</v>
+      </c>
+      <c r="C30">
+        <v>0.1358207857879058</v>
+      </c>
+      <c r="D30">
+        <v>0.16611199058255821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.103401248781053</v>
+      </c>
+      <c r="C31">
+        <v>0.114093991047202</v>
+      </c>
+      <c r="D31">
+        <v>6.0665033191551698E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9.8358242537593302E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.11361794879574599</v>
+      </c>
+      <c r="D32">
+        <v>8.2977926353004494E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>9.4258193083376005E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.03167275755089E-2</v>
+      </c>
+      <c r="D33">
+        <v>7.5052659187881302E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.10835876673430329</v>
+      </c>
+      <c r="C34">
+        <v>0.16339155532641161</v>
+      </c>
+      <c r="D34">
+        <v>3.91451621736673E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.102816912807557</v>
+      </c>
+      <c r="C35">
+        <v>0.1023343193484869</v>
+      </c>
+      <c r="D35">
+        <v>6.4336182358468802E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.19197228022350921</v>
+      </c>
+      <c r="C36">
+        <v>0.15294907308256639</v>
+      </c>
+      <c r="D36">
+        <v>6.7238348096750999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.80393086825228244</v>
+      </c>
+      <c r="C37">
+        <v>6.7375480236990401E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.9807508152730207E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6.6167959986442607E-2</v>
+      </c>
+      <c r="C38">
+        <v>7.6151435554355704E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.2840538735028507E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.1222493496902529</v>
+      </c>
+      <c r="C39">
+        <v>0.13673505281925641</v>
+      </c>
+      <c r="D39">
+        <v>9.4883358222479799E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.10162090911693911</v>
+      </c>
+      <c r="C40">
+        <v>10.857656669408341</v>
+      </c>
+      <c r="D40">
+        <v>5.2060802732184198E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.1042933991910914</v>
+      </c>
+      <c r="C41">
+        <v>6.1261567924386598E-2</v>
+      </c>
+      <c r="D41">
+        <v>8.6004401535494601E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>9.5679174455459606E-2</v>
+      </c>
+      <c r="C42">
+        <v>9.1138287822578906E-2</v>
+      </c>
+      <c r="D42">
+        <v>9.0977203622000805E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>7.4359878894083395E-2</v>
+      </c>
+      <c r="C43">
+        <v>6.5766397091498702E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.2330615860296063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.1601125241064596</v>
+      </c>
+      <c r="C44">
+        <v>9.2254898177782194E-2</v>
+      </c>
+      <c r="D44">
+        <v>7.9662068564279098E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.17310036887814581</v>
+      </c>
+      <c r="C45">
+        <v>0.11907482875611269</v>
+      </c>
+      <c r="D45">
+        <v>5.1475262721008397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.1137420707936056</v>
+      </c>
+      <c r="C46">
+        <v>0.21036184433089369</v>
+      </c>
+      <c r="D46">
+        <v>0.1435263814287753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>8.0663082832483093E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.13561667407084829</v>
+      </c>
+      <c r="D47">
+        <v>7.8495043266604003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>9.6535538020299905E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.1213343521245251</v>
+      </c>
+      <c r="D48">
+        <v>8.3959246780567695E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>6.9658146907517607E-2</v>
+      </c>
+      <c r="C49">
+        <v>9.8237603211986907E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.11719383417191311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>7.8440104383450199E-2</v>
+      </c>
+      <c r="C50">
+        <v>7.8176660763078401E-2</v>
+      </c>
+      <c r="D50">
+        <v>8.9659674737016901E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.1196542299146917</v>
+      </c>
+      <c r="C51">
+        <v>0.8077358200085436</v>
+      </c>
+      <c r="D51">
+        <v>0.1127236444506732</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1178624648683151</v>
+      </c>
+      <c r="C52">
+        <v>0.20004454667478799</v>
+      </c>
+      <c r="D52">
+        <v>0.13828793960923619</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>9.7185122118083195E-2</v>
+      </c>
+      <c r="C53">
+        <v>0.1007410703536154</v>
+      </c>
+      <c r="D53">
+        <v>6.6994133387076202E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>9.2255304251555606E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.4985651366589971</v>
+      </c>
+      <c r="D54">
+        <v>0.1357206550298353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9.4836253841446699E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.13289272187098269</v>
+      </c>
+      <c r="D55">
+        <v>5.9573412063540498E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>9.6794837684457E-2</v>
+      </c>
+      <c r="C56">
+        <v>8.7254568157281095E-2</v>
+      </c>
+      <c r="D56">
+        <v>7.4566560671647297E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>9.6105766402336104E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.1041716127811204</v>
+      </c>
+      <c r="D57">
+        <v>8.3907199863809206E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7.7206197337268495E-2</v>
+      </c>
+      <c r="C58">
+        <v>8.3772817615440795E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.10338650441022119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.1995902020491809</v>
+      </c>
+      <c r="C59">
+        <v>0.18268855139026219</v>
+      </c>
+      <c r="D59">
+        <v>0.13770212242379701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>9.5279952751202102E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.1144727588980127</v>
+      </c>
+      <c r="D60">
+        <v>6.0924291141891258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>8.1608065227088397E-2</v>
+      </c>
+      <c r="C61">
+        <v>6.4235476824902493E-2</v>
+      </c>
+      <c r="D61">
+        <v>6.8324278882585094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>8.9958951741993406E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.1670611770708455</v>
+      </c>
+      <c r="D62">
+        <v>7.3458191618594404E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6.9835303056685505E-2</v>
+      </c>
+      <c r="C63">
+        <v>0.10200479069208</v>
+      </c>
+      <c r="D63">
+        <v>8.8096051697709996E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>4.696950479848E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.1229577818451061</v>
+      </c>
+      <c r="D64">
+        <v>9.6138064191777006E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1138005011600714</v>
+      </c>
+      <c r="C65">
+        <v>7.2849898675294802E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.1073756891251553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.1031349349000979</v>
+      </c>
+      <c r="C66">
+        <v>8.6225331206412098E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.14738936208137349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.41583535178344</v>
+      </c>
+      <c r="C67">
+        <v>0.17913261529262561</v>
+      </c>
+      <c r="D67">
+        <v>0.130962688361035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.11997707692450971</v>
+      </c>
+      <c r="C68">
+        <v>0.61373252860279692</v>
+      </c>
+      <c r="D68">
+        <v>5.5574488925632298E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>9.3564526258101299E-2</v>
+      </c>
+      <c r="C69">
+        <v>9.9825677611581703E-2</v>
+      </c>
+      <c r="D69">
+        <v>8.8422801951192204E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.13919336900786031</v>
+      </c>
+      <c r="C70">
+        <v>0.1140114134852571</v>
+      </c>
+      <c r="D70">
+        <v>0.1183449727556064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>9.8582747605794094E-2</v>
+      </c>
+      <c r="C71">
+        <v>8.1343003887597395E-2</v>
+      </c>
+      <c r="D71">
+        <v>8.5073463991989201E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.1092099218733411</v>
+      </c>
+      <c r="C72">
+        <v>0.1076293256944633</v>
+      </c>
+      <c r="D72">
+        <v>0.1076445796319478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8.71522709363938E-2</v>
+      </c>
+      <c r="C73">
+        <v>0.3870081239397456</v>
+      </c>
+      <c r="D73">
+        <v>0.14659077096150011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.1016547900185166</v>
+      </c>
+      <c r="C74">
+        <v>0.1095219217190057</v>
+      </c>
+      <c r="D74">
+        <v>9.25184708986896E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>6.6764042364987494E-2</v>
+      </c>
+      <c r="C75">
+        <v>9.03225587915686E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.2448959820666199E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>8.6447000200964505E-2</v>
+      </c>
+      <c r="C76">
+        <v>9.5516845073309001E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.52195213585212197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.65163855263118386</v>
+      </c>
+      <c r="C77">
+        <v>0.13114691907380249</v>
+      </c>
+      <c r="D77">
+        <v>7.4553703790381703E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.102349311556843</v>
+      </c>
+      <c r="C78">
+        <v>0.12858150073461569</v>
+      </c>
+      <c r="D78">
+        <v>7.3601536079662896E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.54408957110731E-2</v>
+      </c>
+      <c r="C79">
+        <v>0.1079526542802383</v>
+      </c>
+      <c r="D79">
+        <v>7.3813902343466894E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>6.6099982782051495E-2</v>
+      </c>
+      <c r="C80">
+        <v>0.1498341477600923</v>
+      </c>
+      <c r="D80">
+        <v>9.0870915913446801E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>7.8299985178186704E-2</v>
+      </c>
+      <c r="C81">
+        <v>0.10980926549807821</v>
+      </c>
+      <c r="D81">
+        <v>1.9950912184765759</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.10828184296697869</v>
+      </c>
+      <c r="C82">
+        <v>0.2190366532318975</v>
+      </c>
+      <c r="D82">
+        <v>6.4046660444453396E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.1424170386966786</v>
+      </c>
+      <c r="C83">
+        <v>5.6881662957008254</v>
+      </c>
+      <c r="D83">
+        <v>0.14179846652970221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.10311235936520061</v>
+      </c>
+      <c r="C84">
+        <v>0.16870238446893401</v>
+      </c>
+      <c r="D84">
+        <v>9.1074527146764506E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>7.6090232494538404E-2</v>
+      </c>
+      <c r="C85">
+        <v>5.5568279347659093</v>
+      </c>
+      <c r="D85">
+        <v>8.1072790426443303E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.1150539665278876</v>
+      </c>
+      <c r="C86">
+        <v>0.1050772601322339</v>
+      </c>
+      <c r="D86">
+        <v>8.37997273843024E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7.3980452115912795E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.26607396295471958</v>
+      </c>
+      <c r="D87">
+        <v>8.2332774175339199E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7.8646589453474997E-2</v>
+      </c>
+      <c r="C88">
+        <v>8.2471399578533597E-2</v>
+      </c>
+      <c r="D88">
+        <v>9.59652818469615E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>9.6743392943933401E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.11888107050329701</v>
+      </c>
+      <c r="D89">
+        <v>7.9671182669509094E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>8.8276055152268801E-2</v>
+      </c>
+      <c r="C90">
+        <v>0.11738497759429919</v>
+      </c>
+      <c r="D90">
+        <v>9.36877390762198E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>9.3084505684282601E-2</v>
+      </c>
+      <c r="C91">
+        <v>0.12098275667925799</v>
+      </c>
+      <c r="D91">
+        <v>9.6939969217790897E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>8.6689254089482998E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.1184662194374597</v>
+      </c>
+      <c r="D92">
+        <v>9.2148969935771097E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>6.2249264568752197E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.10955292955273931</v>
+      </c>
+      <c r="D93">
+        <v>0.19666269715071569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7.9344256600322197E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.1216049177575617</v>
+      </c>
+      <c r="D94">
+        <v>6.0721119825602902E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>8.0084982192936596E-2</v>
+      </c>
+      <c r="C95">
+        <v>0.12843410381390849</v>
+      </c>
+      <c r="D95">
+        <v>0.1173052190673316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0.1107777161800701</v>
+      </c>
+      <c r="C96">
+        <v>8.6447241731562902E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.1942963423814858</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>8.9192574069730093E-2</v>
+      </c>
+      <c r="C97">
+        <v>8.4946247552736998E-2</v>
+      </c>
+      <c r="D97">
+        <v>7.9984123822963493E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1060409205919783</v>
+      </c>
+      <c r="C98">
+        <v>0.11675213087854761</v>
+      </c>
+      <c r="D98">
+        <v>8.4327264205764099E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.12878875166976569</v>
+      </c>
+      <c r="C99">
+        <v>0.13938043440593181</v>
+      </c>
+      <c r="D99">
+        <v>0.11078162568844679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7.9732443064560204E-2</v>
+      </c>
+      <c r="C100">
+        <v>0.16129524530215719</v>
+      </c>
+      <c r="D100">
+        <v>3.5724624990059528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.18651013454391849</v>
+      </c>
+      <c r="C101">
+        <v>0.1208481913707327</v>
+      </c>
+      <c r="D101">
+        <v>7.18538604030627E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1135126358712467</v>
+      </c>
+      <c r="C2">
+        <v>8.9951817910090007E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.7702142170615796E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.8414367392541101E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.14005054945995951</v>
+      </c>
+      <c r="D3">
+        <v>0.1244977126281465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.9713548781226402E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.7576658049874795E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.1167628594093378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.16137736845464579</v>
+      </c>
+      <c r="C5">
+        <v>0.1142986529051559</v>
+      </c>
+      <c r="D5">
+        <v>7.5300057379785207E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6.7991358178076694E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.6240176955203803E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.8120234933488006E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.5550050346685493E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.23707117756632351</v>
+      </c>
+      <c r="D7">
+        <v>6.8095077924383698E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.148488220562316</v>
+      </c>
+      <c r="C8">
+        <v>7.8214676065247998E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.7199390398024403E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8.0354234670883803E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.1069541448694508</v>
+      </c>
+      <c r="D9">
+        <v>9.3935003130386704E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.9751192518871999E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.5389403267798906E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.5064926812841997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9.0843374857820805E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.19639680371312629</v>
+      </c>
+      <c r="D11">
+        <v>6.3352687598677598E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7.1418146934551605E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.2429409955532496E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.24742111670255049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>9.8756749459998794E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.1659330741267957</v>
+      </c>
+      <c r="D13">
+        <v>9.07182309933834E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5.4345363937933197E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.1349420983674067</v>
+      </c>
+      <c r="D14">
+        <v>9.0823157499427695E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8.6758550608539098E-2</v>
+      </c>
+      <c r="C15">
+        <v>9.5655872194748998E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.7786608089516304E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.0094121421514702E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.1015814927866638</v>
+      </c>
+      <c r="D16">
+        <v>9.3584692421836396E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>8.2068428859037104E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.62974615528488087</v>
+      </c>
+      <c r="D17">
+        <v>8.9149000169189294E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1039654339930467</v>
+      </c>
+      <c r="C18">
+        <v>0.11484860779715329</v>
+      </c>
+      <c r="D18">
+        <v>6.2352786520719503E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8.7699620296606495E-2</v>
+      </c>
+      <c r="C19">
+        <v>14.842328249737051</v>
+      </c>
+      <c r="D19">
+        <v>9.1681930236376399E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.10709351155302239</v>
+      </c>
+      <c r="C20">
+        <v>6.1435161252249897E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.9041070418785002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1308072500437146</v>
+      </c>
+      <c r="C21">
+        <v>7.2231822875848006E-2</v>
+      </c>
+      <c r="D21">
+        <v>8.7702397267382604E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6.0713666379698002E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.5968541769565995E-2</v>
+      </c>
+      <c r="D22">
+        <v>9.0243323143108803E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>9.0807237270930194E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.17673264399903291</v>
+      </c>
+      <c r="D23">
+        <v>0.1190291977935794</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.9363115859988903E-2</v>
+      </c>
+      <c r="C24">
+        <v>7.7037195474444098E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.14888135185555421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.4070828384707304E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.1005462003348772</v>
+      </c>
+      <c r="D25">
+        <v>6.2015181590753997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.1859101825615869</v>
+      </c>
+      <c r="C26">
+        <v>0.15562824530518571</v>
+      </c>
+      <c r="D26">
+        <v>9.5719867633000499E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8.9961120236183703E-2</v>
+      </c>
+      <c r="C27">
+        <v>9.27314958567306E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.1030696275191736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>8.3812762404209096E-2</v>
+      </c>
+      <c r="C28">
+        <v>8.6101407459355503E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.9399267487178803E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8.6682048440388001E-2</v>
+      </c>
+      <c r="C29">
+        <v>9.2599069698162298E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.7019585555746598E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.17349887654940149</v>
+      </c>
+      <c r="C30">
+        <v>0.13291681802896191</v>
+      </c>
+      <c r="D30">
+        <v>0.166598563605143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>9.0711361677424093E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.11863315824506709</v>
+      </c>
+      <c r="D31">
+        <v>5.9838910891355603E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>9.1297633466373998E-2</v>
+      </c>
+      <c r="C32">
+        <v>8.2174508719548095E-2</v>
+      </c>
+      <c r="D32">
+        <v>9.9488880062298002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5.8936135412769798E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.3288084892601496E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.9690302208975499E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>9.9042307877457297E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.1216879669912577</v>
+      </c>
+      <c r="D34">
+        <v>4.0393003016176501E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8.0483219976783898E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.1021349376617572</v>
+      </c>
+      <c r="D35">
+        <v>6.6870017882035102E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.19536739088703389</v>
+      </c>
+      <c r="C36">
+        <v>0.12863035772371459</v>
+      </c>
+      <c r="D36">
+        <v>6.8285254013049093E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.81790988471422754</v>
+      </c>
+      <c r="C37">
+        <v>6.5847994085872302E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.9268508481849996E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6.5029957223670998E-2</v>
+      </c>
+      <c r="C38">
+        <v>7.2998676045078606E-2</v>
+      </c>
+      <c r="D38">
+        <v>7.03671504721156E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>9.9879906152054304E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.13607386482373349</v>
+      </c>
+      <c r="D39">
+        <v>0.1006782398964589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>9.2727224231486799E-2</v>
+      </c>
+      <c r="C40">
+        <v>10.87995775824505</v>
+      </c>
+      <c r="D40">
+        <v>5.9080813952851897E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>8.6599987321930194E-2</v>
+      </c>
+      <c r="C41">
+        <v>6.1325775933233101E-2</v>
+      </c>
+      <c r="D41">
+        <v>8.5680717662218506E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>8.0289422098264507E-2</v>
+      </c>
+      <c r="C42">
+        <v>9.6886905346473901E-2</v>
+      </c>
+      <c r="D42">
+        <v>7.2792518270271903E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>7.3878652189302604E-2</v>
+      </c>
+      <c r="C43">
+        <v>6.5215986651200902E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.24232171977881539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.1536809815699495</v>
+      </c>
+      <c r="C44">
+        <v>8.5998773242813298E-2</v>
+      </c>
+      <c r="D44">
+        <v>8.2233241233824403E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.20931438082720069</v>
+      </c>
+      <c r="C45">
+        <v>9.5925648744471598E-2</v>
+      </c>
+      <c r="D45">
+        <v>7.2213511486404158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>9.2920689563088799E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.1999566519884661</v>
+      </c>
+      <c r="D46">
+        <v>0.14085453472041451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>7.8884389831290397E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.1240872569760982</v>
+      </c>
+      <c r="D47">
+        <v>7.2655491552788901E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5.6736783976380101E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.1137178789593009</v>
+      </c>
+      <c r="D48">
+        <v>9.2783254102549895E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>6.5255116841474697E-2</v>
+      </c>
+      <c r="C49">
+        <v>8.9730035807936398E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.1107852479028979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>8.02798417539725E-2</v>
+      </c>
+      <c r="C50">
+        <v>8.2129540599659406E-2</v>
+      </c>
+      <c r="D50">
+        <v>9.4512013695729105E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9.7317118185787199E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.80620626299629705</v>
+      </c>
+      <c r="D51">
+        <v>0.13933349678538501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1173929451728955</v>
+      </c>
+      <c r="C52">
+        <v>0.19714384039015931</v>
+      </c>
+      <c r="D52">
+        <v>0.14454338865732419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.1003816950630161</v>
+      </c>
+      <c r="C53">
+        <v>9.5203289256322599E-2</v>
+      </c>
+      <c r="D53">
+        <v>7.1531716507538395E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>9.1538642036871495E-2</v>
+      </c>
+      <c r="C54">
+        <v>0.50075152796906586</v>
+      </c>
+      <c r="D54">
+        <v>9.5617021798990495E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9.4305363266092193E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.12664370327615701</v>
+      </c>
+      <c r="D55">
+        <v>5.5958234816556603E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>8.37765297053258E-2</v>
+      </c>
+      <c r="C56">
+        <v>8.5924883049623202E-2</v>
+      </c>
+      <c r="D56">
+        <v>7.6429946962685999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>8.6040698825278802E-2</v>
+      </c>
+      <c r="C57">
+        <v>0.10051751684454729</v>
+      </c>
+      <c r="D57">
+        <v>8.5431878312585294E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7.3789780484115303E-2</v>
+      </c>
+      <c r="C58">
+        <v>8.5190915905626399E-2</v>
+      </c>
+      <c r="D58">
+        <v>0.1035453540030153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.1600826694509522</v>
+      </c>
+      <c r="C59">
+        <v>0.1901065045587651</v>
+      </c>
+      <c r="D59">
+        <v>0.1101506088327696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>8.9906929394179699E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.1145270017362577</v>
+      </c>
+      <c r="D60">
+        <v>6.0810117805718669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>7.6962757060179895E-2</v>
+      </c>
+      <c r="C61">
+        <v>6.3036212779654197E-2</v>
+      </c>
+      <c r="D61">
+        <v>7.3132530819308661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>8.0270999912243304E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.16083389183662011</v>
+      </c>
+      <c r="D62">
+        <v>7.1402851471097206E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6.8877622823655504E-2</v>
+      </c>
+      <c r="C63">
+        <v>7.9053988731917796E-2</v>
+      </c>
+      <c r="D63">
+        <v>8.52682941922044E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>4.6192424388973197E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.12485672657359009</v>
+      </c>
+      <c r="D64">
+        <v>9.1281715974315294E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1071634019976877</v>
+      </c>
+      <c r="C65">
+        <v>7.8215775684471606E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.1037900013525403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.1032817008627295</v>
+      </c>
+      <c r="C66">
+        <v>8.1269632884048704E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.14738936208137349</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.41514465535816669</v>
+      </c>
+      <c r="C67">
+        <v>0.18950897159711749</v>
+      </c>
+      <c r="D67">
+        <v>0.1080014547848695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.13154783145667109</v>
+      </c>
+      <c r="C68">
+        <v>0.82178529650440368</v>
+      </c>
+      <c r="D68">
+        <v>6.5012290592718902E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>9.1417573945221597E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.12814576966418689</v>
+      </c>
+      <c r="D69">
+        <v>8.7806497175458201E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.1196346707623183</v>
+      </c>
+      <c r="C70">
+        <v>0.10512214511137501</v>
+      </c>
+      <c r="D70">
+        <v>0.1027841668398565</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>9.2287582131316298E-2</v>
+      </c>
+      <c r="C71">
+        <v>8.1051918625617905E-2</v>
+      </c>
+      <c r="D71">
+        <v>8.2463162889856903E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>9.3433630261460704E-2</v>
+      </c>
+      <c r="C72">
+        <v>0.1018003851867381</v>
+      </c>
+      <c r="D72">
+        <v>8.6387984373183194E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8.8626315492590896E-2</v>
+      </c>
+      <c r="C73">
+        <v>9.3590391068434406E-2</v>
+      </c>
+      <c r="D73">
+        <v>0.145164696969239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.1069704504609358</v>
+      </c>
+      <c r="C74">
+        <v>0.1022436214163938</v>
+      </c>
+      <c r="D74">
+        <v>8.9644992017993502E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>7.1117161563479303E-2</v>
+      </c>
+      <c r="C75">
+        <v>8.5185738651663206E-2</v>
+      </c>
+      <c r="D75">
+        <v>8.8508753262075704E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>7.2753709767439098E-2</v>
+      </c>
+      <c r="C76">
+        <v>9.0059643781426002E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.52794053194897306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.65228969438704854</v>
+      </c>
+      <c r="C77">
+        <v>0.13446050290685729</v>
+      </c>
+      <c r="D77">
+        <v>7.4695556226294799E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.10038806017912651</v>
+      </c>
+      <c r="C78">
+        <v>0.12922952422492159</v>
+      </c>
+      <c r="D78">
+        <v>7.0676320742479107E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.5892191479236998E-2</v>
+      </c>
+      <c r="C79">
+        <v>0.10340976047344549</v>
+      </c>
+      <c r="D79">
+        <v>7.0599029582325695E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5.9620079989558601E-2</v>
+      </c>
+      <c r="C80">
+        <v>0.1022281552227402</v>
+      </c>
+      <c r="D80">
+        <v>7.4419503209538301E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>7.0945618646291606E-2</v>
+      </c>
+      <c r="C81">
+        <v>8.2884385578995398E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.9950913246956901</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.1000542739072021</v>
+      </c>
+      <c r="C82">
+        <v>0.1957426180140385</v>
+      </c>
+      <c r="D82">
+        <v>6.1660243926071001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.1553568770234196</v>
+      </c>
+      <c r="C83">
+        <v>5.7027631925644107</v>
+      </c>
+      <c r="D83">
+        <v>0.14179846651545641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>9.9363852051575399E-2</v>
+      </c>
+      <c r="C84">
+        <v>0.1388792173616705</v>
+      </c>
+      <c r="D84">
+        <v>0.10401301942975059</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>7.9158950514925497E-2</v>
+      </c>
+      <c r="C85">
+        <v>5.4136111273458694</v>
+      </c>
+      <c r="D85">
+        <v>7.77567682360297E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.1142718815789843</v>
+      </c>
+      <c r="C86">
+        <v>0.1038139936834702</v>
+      </c>
+      <c r="D86">
+        <v>8.3758009302359701E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>7.2376423097236298E-2</v>
+      </c>
+      <c r="C87">
+        <v>8.2668883697149004E-2</v>
+      </c>
+      <c r="D87">
+        <v>8.2160473430153397E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7.5362549329668904E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.10542770790140001</v>
+      </c>
+      <c r="D88">
+        <v>9.9329295199640497E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>9.2315637122339006E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.1180588569159161</v>
+      </c>
+      <c r="D89">
+        <v>8.2168300449096995E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.110025409837859</v>
+      </c>
+      <c r="C90">
+        <v>0.12070732359539681</v>
+      </c>
+      <c r="D90">
+        <v>8.3048703469044499E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.1214784348197708</v>
+      </c>
+      <c r="C91">
+        <v>0.32549418671774472</v>
+      </c>
+      <c r="D91">
+        <v>9.6348646501047797E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>8.2529333363600896E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.11043106760410849</v>
+      </c>
+      <c r="D92">
+        <v>9.1293179687288895E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>5.03417636449612E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.10603557822006859</v>
+      </c>
+      <c r="D93">
+        <v>0.1954129199351817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7.6121432734778297E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.1101362967151673</v>
+      </c>
+      <c r="D94">
+        <v>5.8946141932538602E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>8.3149258079706606E-2</v>
+      </c>
+      <c r="C95">
+        <v>0.12641834381385139</v>
+      </c>
+      <c r="D95">
+        <v>0.1167255404924567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7.6524549354817201E-2</v>
+      </c>
+      <c r="C96">
+        <v>8.6095930502408602E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.19208738700417369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>8.3473145602710103E-2</v>
+      </c>
+      <c r="C97">
+        <v>8.1313329772366494E-2</v>
+      </c>
+      <c r="D97">
+        <v>7.7339160146241301E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1107493874480848</v>
+      </c>
+      <c r="C98">
+        <v>0.1079447020360681</v>
+      </c>
+      <c r="D98">
+        <v>8.7436432413656895E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.1290891204212645</v>
+      </c>
+      <c r="C99">
+        <v>0.13609806755786499</v>
+      </c>
+      <c r="D99">
+        <v>9.3465318398341504E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7.4975121495750696E-2</v>
+      </c>
+      <c r="C100">
+        <v>0.2342535254224358</v>
+      </c>
+      <c r="D100">
+        <v>3.6074686240560898</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.19119524016707931</v>
+      </c>
+      <c r="C101">
+        <v>0.10815663497087739</v>
+      </c>
+      <c r="D101">
+        <v>7.1367062181826701E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1086214820576336</v>
+      </c>
+      <c r="C2">
+        <v>0.12082669817834329</v>
+      </c>
+      <c r="D2">
+        <v>7.8289952398371998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.9753729448557802E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.13885396260491001</v>
+      </c>
+      <c r="D3">
+        <v>0.12498461218524511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8.57306853102211E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.7156123462317501E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.114669764849909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1596913556582393</v>
+      </c>
+      <c r="C5">
+        <v>0.1086356665020095</v>
+      </c>
+      <c r="D5">
+        <v>6.3246812519482595E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6.7956763443198898E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.4851421866249398E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.5342350816917096E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.5865871872900198E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.2158163806805917</v>
+      </c>
+      <c r="D7">
+        <v>5.88530663016281E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1487545448510301</v>
+      </c>
+      <c r="C8">
+        <v>7.6236661485410501E-2</v>
+      </c>
+      <c r="D8">
+        <v>6.6634951176377702E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8.8722295912919094E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.7884429948416697E-2</v>
+      </c>
+      <c r="D9">
+        <v>8.8684170618183497E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>7.7856299132212994E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.0654192787107901E-2</v>
+      </c>
+      <c r="D10">
+        <v>7.2641755189920096E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8.9054163653787197E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.27379724537463029</v>
+      </c>
+      <c r="D11">
+        <v>6.5467935472467195E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6.8443785550241498E-2</v>
+      </c>
+      <c r="C12">
+        <v>8.29773738552783E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.24510247145191719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8.3790526969630394E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.16081981838083689</v>
+      </c>
+      <c r="D13">
+        <v>8.9200315643110303E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5.2130637966078197E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.13149946380422781</v>
+      </c>
+      <c r="D14">
+        <v>8.9957015957346398E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>8.2435698160760407E-2</v>
+      </c>
+      <c r="C15">
+        <v>9.3629902950043295E-2</v>
+      </c>
+      <c r="D15">
+        <v>7.4024110159001996E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7.7405423806989199E-2</v>
+      </c>
+      <c r="C16">
+        <v>9.6500510833351802E-2</v>
+      </c>
+      <c r="D16">
+        <v>8.7744374538516606E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>7.6210440402857196E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.6061820113754165</v>
+      </c>
+      <c r="D17">
+        <v>8.8038230002950996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1032622309365502</v>
+      </c>
+      <c r="C18">
+        <v>0.1080020008532578</v>
+      </c>
+      <c r="D18">
+        <v>6.2533249512964906E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>8.0853643093908995E-2</v>
+      </c>
+      <c r="C19">
+        <v>15.024087974029269</v>
+      </c>
+      <c r="D19">
+        <v>9.0986983223954404E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1053593828633789</v>
+      </c>
+      <c r="C20">
+        <v>6.3755898493644603E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.1085562029243769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1287417928308838</v>
+      </c>
+      <c r="C21">
+        <v>7.3381986731779703E-2</v>
+      </c>
+      <c r="D21">
+        <v>8.8697607405659004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.2603173803579401E-2</v>
+      </c>
+      <c r="C22">
+        <v>7.5506445467145605E-2</v>
+      </c>
+      <c r="D22">
+        <v>8.9473480778010206E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>8.5722395600244805E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.1732360842065864</v>
+      </c>
+      <c r="D23">
+        <v>0.12495008469049119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.5951439105805199E-2</v>
+      </c>
+      <c r="C24">
+        <v>6.5524928882416802E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.1499029242583971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>6.3258648619605298E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.1015131188523488</v>
+      </c>
+      <c r="D25">
+        <v>5.8712350986230503E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.18635099571523139</v>
+      </c>
+      <c r="C26">
+        <v>0.12736936741103921</v>
+      </c>
+      <c r="D26">
+        <v>0.10917192143206669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8.96518724598378E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.9930924500890103E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.1010302561502269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>7.9038236886409194E-2</v>
+      </c>
+      <c r="C28">
+        <v>7.5101098715961795E-2</v>
+      </c>
+      <c r="D28">
+        <v>6.1540260554730497E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8.0305328700696593E-2</v>
+      </c>
+      <c r="C29">
+        <v>8.9252209158250301E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.6379631021328701E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.17164601837836951</v>
+      </c>
+      <c r="C30">
+        <v>0.1310759072609641</v>
+      </c>
+      <c r="D30">
+        <v>0.1657422792033052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>8.6609767746207003E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.11405093165713411</v>
+      </c>
+      <c r="D31">
+        <v>5.9475789128515699E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>8.7263721815798403E-2</v>
+      </c>
+      <c r="C32">
+        <v>6.6053115838360696E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.10061493001834609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5.2572152273252702E-2</v>
+      </c>
+      <c r="C33">
+        <v>7.3453890014611403E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.8208106332885696E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>8.9684310543425599E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.1125908401470254</v>
+      </c>
+      <c r="D34">
+        <v>4.5023315320301398E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>7.9725428158941306E-2</v>
+      </c>
+      <c r="C35">
+        <v>7.2386619594307006E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.4819527608009103E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.1960068432196439</v>
+      </c>
+      <c r="C36">
+        <v>0.12503145548106759</v>
+      </c>
+      <c r="D36">
+        <v>6.9138560182788397E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.81735593199005929</v>
+      </c>
+      <c r="C37">
+        <v>6.5715470397170198E-2</v>
+      </c>
+      <c r="D37">
+        <v>9.7467942428790796E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>6.01752675469212E-2</v>
+      </c>
+      <c r="C38">
+        <v>6.61167593491859E-2</v>
+      </c>
+      <c r="D38">
+        <v>8.8649857216303002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>7.8819226261093306E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.12796440421800639</v>
+      </c>
+      <c r="D39">
+        <v>0.1037902859348831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>8.8867663575375802E-2</v>
+      </c>
+      <c r="C40">
+        <v>10.89256196092863</v>
+      </c>
+      <c r="D40">
+        <v>8.0207027094973696E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>7.8321121786684697E-2</v>
+      </c>
+      <c r="C41">
+        <v>6.09318676676694E-2</v>
+      </c>
+      <c r="D41">
+        <v>8.4374155648719501E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>8.4396868981646403E-2</v>
+      </c>
+      <c r="C42">
+        <v>9.6241598570698902E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.1033897137469324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>6.5171933835619103E-2</v>
+      </c>
+      <c r="C43">
+        <v>7.6467598718693297E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.2426049623979237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.1525034118381341</v>
+      </c>
+      <c r="C44">
+        <v>8.5581920017080398E-2</v>
+      </c>
+      <c r="D44">
+        <v>7.76959617738011E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.24989225423289629</v>
+      </c>
+      <c r="C45">
+        <v>9.3465276676885103E-2</v>
+      </c>
+      <c r="D45">
+        <v>7.22413741605056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>8.9457074400445605E-2</v>
+      </c>
+      <c r="C46">
+        <v>0.19246154898674619</v>
+      </c>
+      <c r="D46">
+        <v>0.1409445550123016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>7.4380212239081006E-2</v>
+      </c>
+      <c r="C47">
+        <v>0.10680273211903669</v>
+      </c>
+      <c r="D47">
+        <v>6.9061988753618797E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5.7730056713494203E-2</v>
+      </c>
+      <c r="C48">
+        <v>0.11210282263341551</v>
+      </c>
+      <c r="D48">
+        <v>8.5808117055877597E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>6.5570866395821603E-2</v>
+      </c>
+      <c r="C49">
+        <v>8.4784424679475306E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.1078486461430989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>8.0589989557980704E-2</v>
+      </c>
+      <c r="C50">
+        <v>7.4842619973324698E-2</v>
+      </c>
+      <c r="D50">
+        <v>8.8088837123353095E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>9.3656086597612695E-2</v>
+      </c>
+      <c r="C51">
+        <v>0.77945393612908276</v>
+      </c>
+      <c r="D51">
+        <v>0.13160716382266241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.1175379261574909</v>
+      </c>
+      <c r="C52">
+        <v>0.1999981271292379</v>
+      </c>
+      <c r="D52">
+        <v>0.14369324794377961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>8.8804736704802503E-2</v>
+      </c>
+      <c r="C53">
+        <v>9.6996392563315603E-2</v>
+      </c>
+      <c r="D53">
+        <v>7.3351213043325605E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.200719699683055</v>
+      </c>
+      <c r="C54">
+        <v>0.50050469286238908</v>
+      </c>
+      <c r="D54">
+        <v>9.1506532203747604E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>9.29005588363465E-2</v>
+      </c>
+      <c r="C55">
+        <v>0.12838276483620081</v>
+      </c>
+      <c r="D55">
+        <v>5.7299401856903097E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>7.6837898898704904E-2</v>
+      </c>
+      <c r="C56">
+        <v>7.9134367465649197E-2</v>
+      </c>
+      <c r="D56">
+        <v>8.1778493642909206E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>8.96025344317746E-2</v>
+      </c>
+      <c r="C57">
+        <v>9.8843591163934305E-2</v>
+      </c>
+      <c r="D57">
+        <v>9.1146581361543896E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7.0858305208087599E-2</v>
+      </c>
+      <c r="C58">
+        <v>8.4606536808933999E-2</v>
+      </c>
+      <c r="D58">
+        <v>9.7147967497474993E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.1640357378244712</v>
+      </c>
+      <c r="C59">
+        <v>0.19087495415491559</v>
+      </c>
+      <c r="D59">
+        <v>0.1085182793937003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>8.8452156275835095E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.1145662831112117</v>
+      </c>
+      <c r="D60">
+        <v>6.0973351649232477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>7.5969345314020803E-2</v>
+      </c>
+      <c r="C61">
+        <v>6.2067105891426402E-2</v>
+      </c>
+      <c r="D61">
+        <v>7.1905451057991243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>7.4740019168704E-2</v>
+      </c>
+      <c r="C62">
+        <v>0.15222253859343321</v>
+      </c>
+      <c r="D62">
+        <v>7.0237617157619406E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>6.9421934975210098E-2</v>
+      </c>
+      <c r="C63">
+        <v>7.8530959340015097E-2</v>
+      </c>
+      <c r="D63">
+        <v>7.7643771060038502E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>4.8435288409800901E-2</v>
+      </c>
+      <c r="C64">
+        <v>0.14213094427375519</v>
+      </c>
+      <c r="D64">
+        <v>8.9716792501834494E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>9.18856769304216E-2</v>
+      </c>
+      <c r="C65">
+        <v>8.5425883937955402E-2</v>
+      </c>
+      <c r="D65">
+        <v>0.10366289017542479</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.1016492757023495</v>
+      </c>
+      <c r="C66">
+        <v>8.0266663145446102E-2</v>
+      </c>
+      <c r="D66">
+        <v>0.1384213418684738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.40785373017440879</v>
+      </c>
+      <c r="C67">
+        <v>0.19095307998405661</v>
+      </c>
+      <c r="D67">
+        <v>0.1334728740800456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.13124164033579391</v>
+      </c>
+      <c r="C68">
+        <v>0.84332345707122758</v>
+      </c>
+      <c r="D68">
+        <v>6.9589245248905196E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>8.40218160216923E-2</v>
+      </c>
+      <c r="C69">
+        <v>0.120437024284911</v>
+      </c>
+      <c r="D69">
+        <v>8.3449366278520495E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.11835408767005549</v>
+      </c>
+      <c r="C70">
+        <v>0.1078093804372591</v>
+      </c>
+      <c r="D70">
+        <v>0.1026845761492312</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>9.05171601433995E-2</v>
+      </c>
+      <c r="C71">
+        <v>7.9100942128412205E-2</v>
+      </c>
+      <c r="D71">
+        <v>7.3603676017326494E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>9.3853593200513896E-2</v>
+      </c>
+      <c r="C72">
+        <v>8.9464338924546805E-2</v>
+      </c>
+      <c r="D72">
+        <v>9.5175648261199994E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8.98465849408355E-2</v>
+      </c>
+      <c r="C73">
+        <v>9.2244725890950605E-2</v>
+      </c>
+      <c r="D73">
+        <v>0.13712413424911701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.11706255857618671</v>
+      </c>
+      <c r="C74">
+        <v>0.1018042640245745</v>
+      </c>
+      <c r="D74">
+        <v>9.0773573260121795E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>7.0112150231906298E-2</v>
+      </c>
+      <c r="C75">
+        <v>0.11227231248212011</v>
+      </c>
+      <c r="D75">
+        <v>8.8188844533790403E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>7.2362155448906895E-2</v>
+      </c>
+      <c r="C76">
+        <v>8.7831771632520594E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.52619209407295153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.65165021477198293</v>
+      </c>
+      <c r="C77">
+        <v>0.13029797730617751</v>
+      </c>
+      <c r="D77">
+        <v>6.9856804268714101E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>9.9289833508791003E-2</v>
+      </c>
+      <c r="C78">
+        <v>0.1392366743208879</v>
+      </c>
+      <c r="D78">
+        <v>6.9528217242953896E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.3769549545360999E-2</v>
+      </c>
+      <c r="C79">
+        <v>9.7680129846064903E-2</v>
+      </c>
+      <c r="D79">
+        <v>7.0610387444025202E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5.8612300351083897E-2</v>
+      </c>
+      <c r="C80">
+        <v>8.6861168488976501E-2</v>
+      </c>
+      <c r="D80">
+        <v>8.2837459866145005E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5.2745831424898901E-2</v>
+      </c>
+      <c r="C81">
+        <v>8.56913076110285E-2</v>
+      </c>
+      <c r="D81">
+        <v>1.9953386358842531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>8.9325637259087307E-2</v>
+      </c>
+      <c r="C82">
+        <v>0.1200998690816333</v>
+      </c>
+      <c r="D82">
+        <v>6.0079335055796802E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.14050398766326691</v>
+      </c>
+      <c r="C83">
+        <v>6.0631668215241614</v>
+      </c>
+      <c r="D83">
+        <v>0.1387177795963204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>9.5428082983244497E-2</v>
+      </c>
+      <c r="C84">
+        <v>0.13669913871935291</v>
+      </c>
+      <c r="D84">
+        <v>0.10181551639855339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>8.0859177556829906E-2</v>
+      </c>
+      <c r="C85">
+        <v>5.5169885814003363</v>
+      </c>
+      <c r="D85">
+        <v>7.2762108419199306E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.1026981186104913</v>
+      </c>
+      <c r="C86">
+        <v>0.1081326911293515</v>
+      </c>
+      <c r="D86">
+        <v>8.4509969457582199E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>6.9236981713787699E-2</v>
+      </c>
+      <c r="C87">
+        <v>0.1102241119181064</v>
+      </c>
+      <c r="D87">
+        <v>8.5271402008947797E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>7.3819293789191207E-2</v>
+      </c>
+      <c r="C88">
+        <v>0.1013069797471606</v>
+      </c>
+      <c r="D88">
+        <v>0.10150471904716241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>8.3458725091200003E-2</v>
+      </c>
+      <c r="C89">
+        <v>0.1187480722477377</v>
+      </c>
+      <c r="D89">
+        <v>8.4835960831301002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7.8724225871057193E-2</v>
+      </c>
+      <c r="C90">
+        <v>0.1113295406570121</v>
+      </c>
+      <c r="D90">
+        <v>9.1451384495222804E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>7.1412862175662395E-2</v>
+      </c>
+      <c r="C91">
+        <v>0.34149586107600371</v>
+      </c>
+      <c r="D91">
+        <v>9.2137376426338694E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>7.3296540554658396E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.1114777675161322</v>
+      </c>
+      <c r="D92">
+        <v>0.1160283676063862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>5.3559603394852003E-2</v>
+      </c>
+      <c r="C93">
+        <v>0.1014622398461297</v>
+      </c>
+      <c r="D93">
+        <v>0.19588006507123931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>7.3301780978601405E-2</v>
+      </c>
+      <c r="C94">
+        <v>0.1051917645904317</v>
+      </c>
+      <c r="D94">
+        <v>5.8556742631218697E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>8.4165427294256606E-2</v>
+      </c>
+      <c r="C95">
+        <v>0.12175484246655691</v>
+      </c>
+      <c r="D95">
+        <v>0.11270598925438639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>7.9716820645245101E-2</v>
+      </c>
+      <c r="C96">
+        <v>8.1594912142097104E-2</v>
+      </c>
+      <c r="D96">
+        <v>0.1923077880769698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>8.1482256716145798E-2</v>
+      </c>
+      <c r="C97">
+        <v>8.0838845140984703E-2</v>
+      </c>
+      <c r="D97">
+        <v>7.7644097442690505E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0.1244021293857364</v>
+      </c>
+      <c r="C98">
+        <v>0.1074891647760715</v>
+      </c>
+      <c r="D98">
+        <v>8.0524667701508401E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0.1291487968361692</v>
+      </c>
+      <c r="C99">
+        <v>0.13414603330698249</v>
+      </c>
+      <c r="D99">
+        <v>9.3327978756126501E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>7.4163207666254796E-2</v>
+      </c>
+      <c r="C100">
+        <v>0.21169397049272529</v>
+      </c>
+      <c r="D100">
+        <v>3.5685011162733029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0.19262885823820319</v>
+      </c>
+      <c r="C101">
+        <v>0.10821819944101591</v>
+      </c>
+      <c r="D101">
+        <v>7.1232204371772107E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>0.10778442085424909</v>
       </c>
       <c r="C2">
